--- a/assets/ExcelResults/BaoCaoLuongThang9Nam2023.xlsx
+++ b/assets/ExcelResults/BaoCaoLuongThang9Nam2023.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="260">
   <si>
     <t>PHÒNG KHÁM ĐA KHOA THIỆN TRANG</t>
   </si>
@@ -128,7 +128,7 @@
     <t>19.144.320</t>
   </si>
   <si>
-    <t>19.644.320</t>
+    <t>17.634.166</t>
   </si>
   <si>
     <t>17.220.750</t>
@@ -152,7 +152,7 @@
     <t>15.611.093</t>
   </si>
   <si>
-    <t>16.111.093</t>
+    <t>14.471.929</t>
   </si>
   <si>
     <t>14.298.332</t>
@@ -182,9 +182,6 @@
     <t>11.653.547</t>
   </si>
   <si>
-    <t>10.953.547</t>
-  </si>
-  <si>
     <t>9.729.924</t>
   </si>
   <si>
@@ -209,20 +206,22 @@
     <t>1.501.718</t>
   </si>
   <si>
+    <t>1.000.000</t>
+  </si>
+  <si>
     <t>14.302.080</t>
   </si>
   <si>
-    <t>17.685.760</t>
-  </si>
-  <si>
-    <t>15.415.637</t>
+    <t>16.684.042</t>
+  </si>
+  <si>
+    <t>16.365.637</t>
   </si>
   <si>
     <t>Nguyễn Duy Thiên</t>
   </si>
   <si>
-    <t xml:space="preserve">Thưởng 500k vì tích cực
-</t>
+    <t>thưởng 1000k</t>
   </si>
   <si>
     <t>PL202309006</t>
@@ -237,7 +236,7 @@
     <t>14.890.027</t>
   </si>
   <si>
-    <t>15.390.027</t>
+    <t>13.826.574</t>
   </si>
   <si>
     <t>13.685.245</t>
@@ -264,7 +263,7 @@
     <t>13.411.840</t>
   </si>
   <si>
-    <t>13.911.840</t>
+    <t>12.503.597</t>
   </si>
   <si>
     <t>12.428.417</t>
@@ -294,7 +293,7 @@
     <t>12.474.453</t>
   </si>
   <si>
-    <t>13.499.453</t>
+    <t>12.189.636</t>
   </si>
   <si>
     <t>12.130.154</t>
@@ -309,6 +308,96 @@
     <t>Điều Dưỡng</t>
   </si>
   <si>
+    <t>PL202309009</t>
+  </si>
+  <si>
+    <t>NV009</t>
+  </si>
+  <si>
+    <t>1.623.586</t>
+  </si>
+  <si>
+    <t>15.462.720</t>
+  </si>
+  <si>
+    <t>15.112.270</t>
+  </si>
+  <si>
+    <t>14.906.657</t>
+  </si>
+  <si>
+    <t>Phạm Ngọc Tuyển</t>
+  </si>
+  <si>
+    <t>Điện Não, Điện Cơ, Thính Lực, Nhĩ Lưỡng</t>
+  </si>
+  <si>
+    <t>PL202309010</t>
+  </si>
+  <si>
+    <t>NV010</t>
+  </si>
+  <si>
+    <t>1.259.440</t>
+  </si>
+  <si>
+    <t>11.994.667</t>
+  </si>
+  <si>
+    <t>12.170.811</t>
+  </si>
+  <si>
+    <t>12.112.270</t>
+  </si>
+  <si>
+    <t>Võ Thị Thu Hằng</t>
+  </si>
+  <si>
+    <t>PL202309011</t>
+  </si>
+  <si>
+    <t>NV011</t>
+  </si>
+  <si>
+    <t>1.439.360</t>
+  </si>
+  <si>
+    <t>13.103.996</t>
+  </si>
+  <si>
+    <t>12.998.796</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hàn Ny</t>
+  </si>
+  <si>
+    <t>PL202309012</t>
+  </si>
+  <si>
+    <t>NV012</t>
+  </si>
+  <si>
+    <t>11.928.417</t>
+  </si>
+  <si>
+    <t>Lê Văn Quàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khoa Xét Nghiệm </t>
+  </si>
+  <si>
+    <t>KTV Xét Nghiệm</t>
+  </si>
+  <si>
+    <t>PL202309013</t>
+  </si>
+  <si>
+    <t>NV013</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Thuận</t>
+  </si>
+  <si>
     <t>PL202309014</t>
   </si>
   <si>
@@ -321,7 +410,7 @@
     <t>15.430.827</t>
   </si>
   <si>
-    <t>15.930.827</t>
+    <t>14.310.590</t>
   </si>
   <si>
     <t>14.145.060</t>
@@ -336,6 +425,18 @@
     <t xml:space="preserve">Bác Sĩ </t>
   </si>
   <si>
+    <t>PL202309015</t>
+  </si>
+  <si>
+    <t>NV015</t>
+  </si>
+  <si>
+    <t>Trần Thị Tuyết Nhung</t>
+  </si>
+  <si>
+    <t>Khoa Tai - Mũi - Họng</t>
+  </si>
+  <si>
     <t>PL202309016</t>
   </si>
   <si>
@@ -345,22 +446,136 @@
     <t>1.610.752</t>
   </si>
   <si>
+    <t>2.000.000</t>
+  </si>
+  <si>
     <t>1.383.782</t>
   </si>
   <si>
     <t>13.178.880</t>
   </si>
   <si>
-    <t>15.289.632</t>
+    <t>13.905.850</t>
+  </si>
+  <si>
+    <t>11.760.557</t>
+  </si>
+  <si>
+    <t>Đặng Thị Bích Hà</t>
+  </si>
+  <si>
+    <t>Y Tá</t>
+  </si>
+  <si>
+    <t>PL202309017</t>
+  </si>
+  <si>
+    <t>NV017</t>
+  </si>
+  <si>
+    <t>Lê Thị Mỹ Hạnh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sản Phụ Khoa </t>
+  </si>
+  <si>
+    <t>PL202309018</t>
+  </si>
+  <si>
+    <t>NV018</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Nhứt</t>
+  </si>
+  <si>
+    <t>PL202309019</t>
+  </si>
+  <si>
+    <t>NV019</t>
+  </si>
+  <si>
+    <t>1.332.531</t>
+  </si>
+  <si>
+    <t>12.690.773</t>
+  </si>
+  <si>
+    <t>12.810.050</t>
+  </si>
+  <si>
+    <t>12.719.548</t>
+  </si>
+  <si>
+    <t>Lương Thị Kim Trang</t>
+  </si>
+  <si>
+    <t>Phòng Lưu Bệnh</t>
+  </si>
+  <si>
+    <t>PL202309020</t>
+  </si>
+  <si>
+    <t>NV020</t>
+  </si>
+  <si>
+    <t>Phạm Kim Hồng Thảo</t>
+  </si>
+  <si>
+    <t>PL202309021</t>
+  </si>
+  <si>
+    <t>NV021</t>
+  </si>
+  <si>
+    <t>12.954.042</t>
+  </si>
+  <si>
+    <t>12.856.340</t>
+  </si>
+  <si>
+    <t>Lê Thị Mai Quỳnh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nội Soi Tiểu Hóa </t>
+  </si>
+  <si>
+    <t>PL202309022</t>
+  </si>
+  <si>
+    <t>NV022</t>
+  </si>
+  <si>
+    <t>11.664.636</t>
+  </si>
+  <si>
+    <t>11.631.404</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Đàm</t>
+  </si>
+  <si>
+    <t>PL202309023</t>
+  </si>
+  <si>
+    <t>NV023</t>
+  </si>
+  <si>
+    <t>Trần Thị Hương Thủy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Răng - Hàm - Mặt </t>
+  </si>
+  <si>
+    <t>PL202309024</t>
+  </si>
+  <si>
+    <t>NV024</t>
   </si>
   <si>
     <t>13.760.557</t>
   </si>
   <si>
-    <t>Đặng Thị Bích Hà</t>
-  </si>
-  <si>
-    <t>Y Tá</t>
+    <t>Phùng Thị Bảo Ngân</t>
   </si>
   <si>
     <t>PL202309025</t>
@@ -372,7 +587,7 @@
     <t>1.116.752</t>
   </si>
   <si>
-    <t>16.506.779</t>
+    <t>14.943.326</t>
   </si>
   <si>
     <t>14.746.160</t>
@@ -381,6 +596,171 @@
     <t>Lê Minh Vũ</t>
   </si>
   <si>
+    <t>PL202309026</t>
+  </si>
+  <si>
+    <t>NV026</t>
+  </si>
+  <si>
+    <t>11.858.242</t>
+  </si>
+  <si>
+    <t>11.815.330</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Mỹ Hiệp</t>
+  </si>
+  <si>
+    <t>PL202309027</t>
+  </si>
+  <si>
+    <t>NV027</t>
+  </si>
+  <si>
+    <t>12.145.060</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Mộng Hà</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khoa Ngoại Tổng Quát </t>
+  </si>
+  <si>
+    <t>PL202309028</t>
+  </si>
+  <si>
+    <t>NV028</t>
+  </si>
+  <si>
+    <t>Ngụy Mai Phương</t>
+  </si>
+  <si>
+    <t>PL202309029</t>
+  </si>
+  <si>
+    <t>NV029</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hoa Lư</t>
+  </si>
+  <si>
+    <t>PL202309030</t>
+  </si>
+  <si>
+    <t>NV030</t>
+  </si>
+  <si>
+    <t>Lê Nguyễn Thảo Sương</t>
+  </si>
+  <si>
+    <t>PL202309031</t>
+  </si>
+  <si>
+    <t>NV031</t>
+  </si>
+  <si>
+    <t>1.500.000</t>
+  </si>
+  <si>
+    <t>11.219.548</t>
+  </si>
+  <si>
+    <t>Võ Thị Lan Anh</t>
+  </si>
+  <si>
+    <t>PL202309032</t>
+  </si>
+  <si>
+    <t>NV032</t>
+  </si>
+  <si>
+    <t>5.728.320</t>
+  </si>
+  <si>
+    <t>6.326.974</t>
+  </si>
+  <si>
+    <t>4.326.974</t>
+  </si>
+  <si>
+    <t>Trần Minh Tân</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hậu Cần </t>
+  </si>
+  <si>
+    <t>Bảo Vệ</t>
+  </si>
+  <si>
+    <t>PL202309033</t>
+  </si>
+  <si>
+    <t>NV033</t>
+  </si>
+  <si>
+    <t>8.256.213</t>
+  </si>
+  <si>
+    <t>7.889.311</t>
+  </si>
+  <si>
+    <t>Lê Thị Thu Thủy</t>
+  </si>
+  <si>
+    <t>Chăm Sóc Khách Hàng</t>
+  </si>
+  <si>
+    <t>Lễ Tân</t>
+  </si>
+  <si>
+    <t>PL202309034</t>
+  </si>
+  <si>
+    <t>NV034</t>
+  </si>
+  <si>
+    <t>Lê Thị Thanh Thủy</t>
+  </si>
+  <si>
+    <t>PL202309035</t>
+  </si>
+  <si>
+    <t>NV035</t>
+  </si>
+  <si>
+    <t>9.337.813</t>
+  </si>
+  <si>
+    <t>8.857.343</t>
+  </si>
+  <si>
+    <t>Đỗ Thành Long</t>
+  </si>
+  <si>
+    <t>Lái Xe</t>
+  </si>
+  <si>
+    <t>PL202309036</t>
+  </si>
+  <si>
+    <t>NV036</t>
+  </si>
+  <si>
+    <t>6.417.493</t>
+  </si>
+  <si>
+    <t>6.243.657</t>
+  </si>
+  <si>
+    <t>5.243.657</t>
+  </si>
+  <si>
+    <t>Lê Minh Khôi</t>
+  </si>
+  <si>
+    <t>Tạp Vụ</t>
+  </si>
+  <si>
     <t>PL202309037</t>
   </si>
   <si>
@@ -390,7 +770,7 @@
     <t>1.550.000</t>
   </si>
   <si>
-    <t>16.980.827</t>
+    <t>15.360.590</t>
   </si>
   <si>
     <t>15.142.560</t>
@@ -399,10 +779,7 @@
     <t>Trịnh Lê Phương Nghi</t>
   </si>
   <si>
-    <t xml:space="preserve">Răng - Hàm - Mặt </t>
-  </si>
-  <si>
-    <t>Nha Trang, ngày 04 tháng 11 năm 2023</t>
+    <t>Nha Trang, ngày 12 tháng 11 năm 2023</t>
   </si>
   <si>
     <t>Giám đốc Công ty</t>
@@ -881,10 +1258,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:SYZ21"/>
+  <dimension ref="A1:SYZ46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:T17"/>
+      <selection activeCell="A1" sqref="A1:T42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -893,8 +1270,8 @@
     <col min="2" max="2" width="21.566" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="19.138" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="24.708" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="31.707" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="15.282" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="47.131" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="17.567" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="17.71" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="19.138" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="19.138" bestFit="true" customWidth="true" style="0"/>
@@ -902,13 +1279,13 @@
     <col min="11" max="11" width="19.138" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="12.568" bestFit="true" customWidth="true" style="0"/>
     <col min="13" max="13" width="19.138" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="8.855" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="24.28" bestFit="true" customWidth="true" style="0"/>
     <col min="17" max="17" width="20.281" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="15.139" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="15.139" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="28.136" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="26" max="26" width="9.10" bestFit="true" style="0"/>
     <col min="26" max="26" width="9.10" bestFit="true" style="0"/>
     <col min="182" max="182" width="9.10" bestFit="true" style="0"/>
@@ -933,6 +1310,31 @@
     <col min="13520" max="13520" width="28" customWidth="true" style="0"/>
     <col min="13520" max="13520" width="28" customWidth="true" style="0"/>
     <col min="13520" max="13520" width="28" customWidth="true" style="0"/>
+    <col min="13520" max="13520" width="28" customWidth="true" style="0"/>
+    <col min="13520" max="13520" width="28" customWidth="true" style="0"/>
+    <col min="13520" max="13520" width="28" customWidth="true" style="0"/>
+    <col min="13520" max="13520" width="28" customWidth="true" style="0"/>
+    <col min="13520" max="13520" width="28" customWidth="true" style="0"/>
+    <col min="13520" max="13520" width="28" customWidth="true" style="0"/>
+    <col min="13520" max="13520" width="28" customWidth="true" style="0"/>
+    <col min="13520" max="13520" width="28" customWidth="true" style="0"/>
+    <col min="13520" max="13520" width="28" customWidth="true" style="0"/>
+    <col min="13520" max="13520" width="28" customWidth="true" style="0"/>
+    <col min="13520" max="13520" width="28" customWidth="true" style="0"/>
+    <col min="13520" max="13520" width="28" customWidth="true" style="0"/>
+    <col min="13520" max="13520" width="28" customWidth="true" style="0"/>
+    <col min="13520" max="13520" width="28" customWidth="true" style="0"/>
+    <col min="13520" max="13520" width="28" customWidth="true" style="0"/>
+    <col min="13520" max="13520" width="28" customWidth="true" style="0"/>
+    <col min="13520" max="13520" width="28" customWidth="true" style="0"/>
+    <col min="13520" max="13520" width="28" customWidth="true" style="0"/>
+    <col min="13520" max="13520" width="28" customWidth="true" style="0"/>
+    <col min="13520" max="13520" width="28" customWidth="true" style="0"/>
+    <col min="13520" max="13520" width="28" customWidth="true" style="0"/>
+    <col min="13520" max="13520" width="28" customWidth="true" style="0"/>
+    <col min="13520" max="13520" width="28" customWidth="true" style="0"/>
+    <col min="13520" max="13520" width="28" customWidth="true" style="0"/>
+    <col min="13520" max="13520" width="28" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13520">
@@ -1284,13 +1686,13 @@
         <v>51</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="G9" s="7">
         <v>3.82</v>
@@ -1329,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="S9" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T9" s="3"/>
     </row>
@@ -1338,19 +1740,19 @@
         <v>5</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>67</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="G10" s="7">
         <v>3.82</v>
@@ -1362,19 +1764,19 @@
         <v>0</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K10" s="9">
-        <v>500.0</v>
+        <v>0</v>
       </c>
       <c r="L10" s="9">
         <v>500.0</v>
       </c>
       <c r="M10" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="N10" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="N10" s="9">
-        <v>500.0</v>
       </c>
       <c r="O10" s="9">
         <v>0</v>
@@ -1386,7 +1788,7 @@
         <v>65</v>
       </c>
       <c r="R10" s="9">
-        <v>268.404</v>
+        <v>318.404</v>
       </c>
       <c r="S10" s="9" t="s">
         <v>66</v>
@@ -1592,19 +1994,19 @@
         <v>104</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="G14" s="7">
-        <v>4.28</v>
+        <v>4.13</v>
       </c>
       <c r="H14" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I14" s="7">
         <v>0</v>
       </c>
       <c r="J14" s="9">
-        <v>0</v>
+        <v>773.136</v>
       </c>
       <c r="K14" s="9">
         <v>0</v>
@@ -1628,7 +2030,7 @@
         <v>101</v>
       </c>
       <c r="R14" s="9">
-        <v>165.529</v>
+        <v>205.614</v>
       </c>
       <c r="S14" s="9" t="s">
         <v>102</v>
@@ -1640,31 +2042,31 @@
         <v>10</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>107</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="G15" s="7">
-        <v>3.52</v>
+        <v>3.46</v>
       </c>
       <c r="H15" s="7">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I15" s="7">
-        <v>0</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>108</v>
+        <v>1</v>
+      </c>
+      <c r="J15" s="9">
+        <v>935.584</v>
       </c>
       <c r="K15" s="9">
         <v>0</v>
@@ -1673,25 +2075,25 @@
         <v>500.0</v>
       </c>
       <c r="M15" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="N15" s="9">
+        <v>0</v>
+      </c>
+      <c r="O15" s="9">
+        <v>0</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q15" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="N15" s="9">
-        <v>0</v>
-      </c>
-      <c r="O15" s="9">
-        <v>0</v>
-      </c>
-      <c r="P15" s="9" t="s">
+      <c r="R15" s="9">
+        <v>58.541</v>
+      </c>
+      <c r="S15" s="9" t="s">
         <v>110</v>
-      </c>
-      <c r="Q15" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="R15" s="9">
-        <v>145.292</v>
-      </c>
-      <c r="S15" s="9" t="s">
-        <v>112</v>
       </c>
       <c r="T15" s="3"/>
     </row>
@@ -1700,22 +2102,22 @@
         <v>11</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="G16" s="7">
-        <v>4.13</v>
+        <v>3.46</v>
       </c>
       <c r="H16" s="7">
         <v>26</v>
@@ -1724,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K16" s="9">
         <v>0</v>
@@ -1733,7 +2135,7 @@
         <v>500.0</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="N16" s="9">
         <v>0</v>
@@ -1742,16 +2144,16 @@
         <v>0</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="R16" s="9">
-        <v>197.166</v>
+        <v>105.2</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="T16" s="3"/>
     </row>
@@ -1760,22 +2162,22 @@
         <v>12</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="E17" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="F17" s="3" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="G17" s="7">
-        <v>4.28</v>
+        <v>3.72</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
@@ -1787,13 +2189,13 @@
         <v>0</v>
       </c>
       <c r="K17" s="9">
-        <v>0</v>
-      </c>
-      <c r="L17" s="9" t="s">
-        <v>123</v>
+        <v>500.0</v>
+      </c>
+      <c r="L17" s="9">
+        <v>500.0</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="N17" s="9">
         <v>0</v>
@@ -1802,44 +2204,1544 @@
         <v>0</v>
       </c>
       <c r="P17" s="9" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="Q17" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="R17" s="9">
+        <v>75.18</v>
+      </c>
+      <c r="S17" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="T17" s="3"/>
+    </row>
+    <row r="18" spans="1:13520">
+      <c r="A18" s="7">
+        <v>13</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="R17" s="9">
+      <c r="C18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18" s="7">
+        <v>3.72</v>
+      </c>
+      <c r="H18" s="7">
+        <v>26</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="9">
+        <v>0</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0</v>
+      </c>
+      <c r="L18" s="9">
+        <v>500.0</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="N18" s="9">
+        <v>0</v>
+      </c>
+      <c r="O18" s="9">
+        <v>0</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="R18" s="9">
+        <v>75.18</v>
+      </c>
+      <c r="S18" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="T18" s="3"/>
+    </row>
+    <row r="19" spans="1:13520">
+      <c r="A19" s="7">
+        <v>14</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G19" s="7">
+        <v>4.28</v>
+      </c>
+      <c r="H19" s="7">
+        <v>26</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="9">
+        <v>0</v>
+      </c>
+      <c r="K19" s="9">
+        <v>0</v>
+      </c>
+      <c r="L19" s="9">
+        <v>500.0</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="N19" s="9">
+        <v>0</v>
+      </c>
+      <c r="O19" s="9">
+        <v>0</v>
+      </c>
+      <c r="P19" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q19" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="R19" s="9">
+        <v>165.529</v>
+      </c>
+      <c r="S19" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="1:13520">
+      <c r="A20" s="7">
+        <v>15</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G20" s="7">
+        <v>4.28</v>
+      </c>
+      <c r="H20" s="7">
+        <v>26</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="9">
+        <v>0</v>
+      </c>
+      <c r="K20" s="9">
+        <v>0</v>
+      </c>
+      <c r="L20" s="9">
+        <v>500.0</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="N20" s="9">
+        <v>0</v>
+      </c>
+      <c r="O20" s="9">
+        <v>0</v>
+      </c>
+      <c r="P20" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q20" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="R20" s="9">
+        <v>165.529</v>
+      </c>
+      <c r="S20" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="T20" s="3"/>
+    </row>
+    <row r="21" spans="1:13520">
+      <c r="A21" s="7">
+        <v>16</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G21" s="7">
+        <v>3.52</v>
+      </c>
+      <c r="H21" s="7">
+        <v>27</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="L21" s="9">
+        <v>500.0</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="N21" s="9">
+        <v>0</v>
+      </c>
+      <c r="O21" s="9">
+        <v>0</v>
+      </c>
+      <c r="P21" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q21" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="R21" s="9">
+        <v>145.292</v>
+      </c>
+      <c r="S21" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="T21" s="3"/>
+    </row>
+    <row r="22" spans="1:13520">
+      <c r="A22" s="7">
+        <v>17</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G22" s="7">
+        <v>4.28</v>
+      </c>
+      <c r="H22" s="7">
+        <v>26</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9">
+        <v>500.0</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0</v>
+      </c>
+      <c r="O22" s="9">
+        <v>0</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="R22" s="9">
+        <v>165.529</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="T22" s="3"/>
+    </row>
+    <row r="23" spans="1:13520">
+      <c r="A23" s="7">
+        <v>18</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G23" s="7">
+        <v>4.28</v>
+      </c>
+      <c r="H23" s="7">
+        <v>26</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0</v>
+      </c>
+      <c r="J23" s="9">
+        <v>0</v>
+      </c>
+      <c r="K23" s="9">
+        <v>0</v>
+      </c>
+      <c r="L23" s="9">
+        <v>500.0</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="N23" s="9">
+        <v>0</v>
+      </c>
+      <c r="O23" s="9">
+        <v>0</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="R23" s="9">
+        <v>165.529</v>
+      </c>
+      <c r="S23" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="T23" s="3"/>
+    </row>
+    <row r="24" spans="1:13520">
+      <c r="A24" s="7">
+        <v>19</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G24" s="7">
+        <v>3.52</v>
+      </c>
+      <c r="H24" s="7">
+        <v>26</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="9">
+        <v>951.808</v>
+      </c>
+      <c r="K24" s="9">
+        <v>0</v>
+      </c>
+      <c r="L24" s="9">
+        <v>500.0</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="N24" s="9">
+        <v>0</v>
+      </c>
+      <c r="O24" s="9">
+        <v>0</v>
+      </c>
+      <c r="P24" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q24" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="R24" s="9">
+        <v>90.503</v>
+      </c>
+      <c r="S24" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="T24" s="3"/>
+    </row>
+    <row r="25" spans="1:13520">
+      <c r="A25" s="7">
+        <v>20</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G25" s="7">
+        <v>4.28</v>
+      </c>
+      <c r="H25" s="7">
+        <v>26</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="9">
+        <v>0</v>
+      </c>
+      <c r="K25" s="9">
+        <v>0</v>
+      </c>
+      <c r="L25" s="9">
+        <v>500.0</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="N25" s="9">
+        <v>0</v>
+      </c>
+      <c r="O25" s="9">
+        <v>0</v>
+      </c>
+      <c r="P25" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q25" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="R25" s="9">
+        <v>165.529</v>
+      </c>
+      <c r="S25" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="T25" s="3"/>
+    </row>
+    <row r="26" spans="1:13520">
+      <c r="A26" s="7">
+        <v>21</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G26" s="7">
+        <v>3.52</v>
+      </c>
+      <c r="H26" s="7">
+        <v>27</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="9">
+        <v>658.944</v>
+      </c>
+      <c r="K26" s="9">
+        <v>0</v>
+      </c>
+      <c r="L26" s="9">
+        <v>500.0</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="N26" s="9">
+        <v>0</v>
+      </c>
+      <c r="O26" s="9">
+        <v>0</v>
+      </c>
+      <c r="P26" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q26" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="R26" s="9">
+        <v>97.702</v>
+      </c>
+      <c r="S26" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="T26" s="3"/>
+    </row>
+    <row r="27" spans="1:13520">
+      <c r="A27" s="7">
+        <v>22</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G27" s="7">
+        <v>3.46</v>
+      </c>
+      <c r="H27" s="7">
+        <v>26</v>
+      </c>
+      <c r="I27" s="7">
+        <v>0</v>
+      </c>
+      <c r="J27" s="9">
+        <v>0</v>
+      </c>
+      <c r="K27" s="9">
+        <v>0</v>
+      </c>
+      <c r="L27" s="9">
+        <v>500.0</v>
+      </c>
+      <c r="M27" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="N27" s="9">
+        <v>0</v>
+      </c>
+      <c r="O27" s="9">
+        <v>0</v>
+      </c>
+      <c r="P27" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q27" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="R27" s="9">
+        <v>33.232</v>
+      </c>
+      <c r="S27" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="T27" s="3"/>
+    </row>
+    <row r="28" spans="1:13520">
+      <c r="A28" s="7">
+        <v>23</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" s="7">
+        <v>4.13</v>
+      </c>
+      <c r="H28" s="7">
+        <v>26</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="9">
+        <v>0</v>
+      </c>
+      <c r="K28" s="9">
+        <v>0</v>
+      </c>
+      <c r="L28" s="9">
+        <v>500.0</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="N28" s="9">
+        <v>0</v>
+      </c>
+      <c r="O28" s="9">
+        <v>0</v>
+      </c>
+      <c r="P28" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q28" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="R28" s="9">
+        <v>141.329</v>
+      </c>
+      <c r="S28" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="T28" s="3"/>
+    </row>
+    <row r="29" spans="1:13520">
+      <c r="A29" s="7">
+        <v>24</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G29" s="7">
+        <v>3.52</v>
+      </c>
+      <c r="H29" s="7">
+        <v>27</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="K29" s="9">
+        <v>0</v>
+      </c>
+      <c r="L29" s="9">
+        <v>500.0</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="N29" s="9">
+        <v>0</v>
+      </c>
+      <c r="O29" s="9">
+        <v>0</v>
+      </c>
+      <c r="P29" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q29" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="R29" s="9">
+        <v>145.292</v>
+      </c>
+      <c r="S29" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="T29" s="3"/>
+    </row>
+    <row r="30" spans="1:13520">
+      <c r="A30" s="7">
+        <v>25</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" s="7">
+        <v>4.13</v>
+      </c>
+      <c r="H30" s="7">
+        <v>26</v>
+      </c>
+      <c r="I30" s="7">
+        <v>0</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="K30" s="9">
+        <v>0</v>
+      </c>
+      <c r="L30" s="9">
+        <v>500.0</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="N30" s="9">
+        <v>0</v>
+      </c>
+      <c r="O30" s="9">
+        <v>0</v>
+      </c>
+      <c r="P30" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q30" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="R30" s="9">
+        <v>197.166</v>
+      </c>
+      <c r="S30" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="T30" s="3"/>
+    </row>
+    <row r="31" spans="1:13520">
+      <c r="A31" s="7">
+        <v>26</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G31" s="7">
+        <v>3.52</v>
+      </c>
+      <c r="H31" s="7">
+        <v>26</v>
+      </c>
+      <c r="I31" s="7">
+        <v>0</v>
+      </c>
+      <c r="J31" s="9">
+        <v>0</v>
+      </c>
+      <c r="K31" s="9">
+        <v>0</v>
+      </c>
+      <c r="L31" s="9">
+        <v>500.0</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="N31" s="9">
+        <v>0</v>
+      </c>
+      <c r="O31" s="9">
+        <v>0</v>
+      </c>
+      <c r="P31" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q31" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="R31" s="9">
+        <v>42.912</v>
+      </c>
+      <c r="S31" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="T31" s="3"/>
+    </row>
+    <row r="32" spans="1:13520">
+      <c r="A32" s="7">
+        <v>27</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G32" s="7">
+        <v>4.28</v>
+      </c>
+      <c r="H32" s="7">
+        <v>26</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="9">
+        <v>0</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="L32" s="9">
+        <v>500.0</v>
+      </c>
+      <c r="M32" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="N32" s="9">
+        <v>0</v>
+      </c>
+      <c r="O32" s="9">
+        <v>0</v>
+      </c>
+      <c r="P32" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q32" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="R32" s="9">
+        <v>165.529</v>
+      </c>
+      <c r="S32" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="T32" s="3"/>
+    </row>
+    <row r="33" spans="1:13520">
+      <c r="A33" s="7">
+        <v>28</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G33" s="7">
+        <v>3.52</v>
+      </c>
+      <c r="H33" s="7">
+        <v>26</v>
+      </c>
+      <c r="I33" s="7">
+        <v>0</v>
+      </c>
+      <c r="J33" s="9">
+        <v>0</v>
+      </c>
+      <c r="K33" s="9">
+        <v>0</v>
+      </c>
+      <c r="L33" s="9">
+        <v>500.0</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="N33" s="9">
+        <v>0</v>
+      </c>
+      <c r="O33" s="9">
+        <v>0</v>
+      </c>
+      <c r="P33" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q33" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="R33" s="9">
+        <v>42.912</v>
+      </c>
+      <c r="S33" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="T33" s="3"/>
+    </row>
+    <row r="34" spans="1:13520">
+      <c r="A34" s="7">
+        <v>29</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G34" s="7">
+        <v>4.28</v>
+      </c>
+      <c r="H34" s="7">
+        <v>26</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0</v>
+      </c>
+      <c r="J34" s="9">
+        <v>0</v>
+      </c>
+      <c r="K34" s="9">
+        <v>0</v>
+      </c>
+      <c r="L34" s="9">
+        <v>500.0</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="N34" s="9">
+        <v>0</v>
+      </c>
+      <c r="O34" s="9">
+        <v>0</v>
+      </c>
+      <c r="P34" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q34" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="R34" s="9">
+        <v>165.529</v>
+      </c>
+      <c r="S34" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="T34" s="3"/>
+    </row>
+    <row r="35" spans="1:13520">
+      <c r="A35" s="7">
+        <v>30</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G35" s="7">
+        <v>4.13</v>
+      </c>
+      <c r="H35" s="7">
+        <v>26</v>
+      </c>
+      <c r="I35" s="7">
+        <v>0</v>
+      </c>
+      <c r="J35" s="9">
+        <v>0</v>
+      </c>
+      <c r="K35" s="9">
+        <v>0</v>
+      </c>
+      <c r="L35" s="9">
+        <v>500.0</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="N35" s="9">
+        <v>0</v>
+      </c>
+      <c r="O35" s="9">
+        <v>0</v>
+      </c>
+      <c r="P35" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q35" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="R35" s="9">
+        <v>141.329</v>
+      </c>
+      <c r="S35" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="T35" s="3"/>
+    </row>
+    <row r="36" spans="1:13520">
+      <c r="A36" s="7">
+        <v>31</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G36" s="7">
+        <v>3.52</v>
+      </c>
+      <c r="H36" s="7">
+        <v>26</v>
+      </c>
+      <c r="I36" s="7">
+        <v>0</v>
+      </c>
+      <c r="J36" s="9">
+        <v>951.808</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="L36" s="9">
+        <v>500.0</v>
+      </c>
+      <c r="M36" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="N36" s="9">
+        <v>0</v>
+      </c>
+      <c r="O36" s="9">
+        <v>0</v>
+      </c>
+      <c r="P36" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q36" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="R36" s="9">
+        <v>90.503</v>
+      </c>
+      <c r="S36" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T36" s="3"/>
+    </row>
+    <row r="37" spans="1:13520">
+      <c r="A37" s="7">
+        <v>32</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G37" s="7">
+        <v>1.53</v>
+      </c>
+      <c r="H37" s="7">
+        <v>27</v>
+      </c>
+      <c r="I37" s="7">
+        <v>0</v>
+      </c>
+      <c r="J37" s="9">
+        <v>700.128</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="L37" s="9">
+        <v>500.0</v>
+      </c>
+      <c r="M37" s="9">
+        <v>601.474</v>
+      </c>
+      <c r="N37" s="9">
+        <v>0</v>
+      </c>
+      <c r="O37" s="9">
+        <v>0</v>
+      </c>
+      <c r="P37" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q37" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="R37" s="9">
+        <v>0</v>
+      </c>
+      <c r="S37" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="T37" s="3"/>
+    </row>
+    <row r="38" spans="1:13520">
+      <c r="A38" s="7">
+        <v>33</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G38" s="7">
+        <v>2.29</v>
+      </c>
+      <c r="H38" s="7">
+        <v>26</v>
+      </c>
+      <c r="I38" s="7">
+        <v>0</v>
+      </c>
+      <c r="J38" s="9">
+        <v>0</v>
+      </c>
+      <c r="K38" s="9">
+        <v>0</v>
+      </c>
+      <c r="L38" s="9">
+        <v>500.0</v>
+      </c>
+      <c r="M38" s="9">
+        <v>866.902</v>
+      </c>
+      <c r="N38" s="9">
+        <v>0</v>
+      </c>
+      <c r="O38" s="9">
+        <v>0</v>
+      </c>
+      <c r="P38" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q38" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="R38" s="9">
+        <v>0</v>
+      </c>
+      <c r="S38" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="T38" s="3"/>
+    </row>
+    <row r="39" spans="1:13520">
+      <c r="A39" s="7">
+        <v>34</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G39" s="7">
+        <v>3.46</v>
+      </c>
+      <c r="H39" s="7">
+        <v>26</v>
+      </c>
+      <c r="I39" s="7">
+        <v>0</v>
+      </c>
+      <c r="J39" s="9">
+        <v>0</v>
+      </c>
+      <c r="K39" s="9">
+        <v>0</v>
+      </c>
+      <c r="L39" s="9">
+        <v>500.0</v>
+      </c>
+      <c r="M39" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="N39" s="9">
+        <v>0</v>
+      </c>
+      <c r="O39" s="9">
+        <v>0</v>
+      </c>
+      <c r="P39" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q39" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="R39" s="9">
+        <v>33.232</v>
+      </c>
+      <c r="S39" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="1:13520">
+      <c r="A40" s="7">
+        <v>35</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G40" s="7">
+        <v>2.59</v>
+      </c>
+      <c r="H40" s="7">
+        <v>26</v>
+      </c>
+      <c r="I40" s="7">
+        <v>0</v>
+      </c>
+      <c r="J40" s="9">
+        <v>0</v>
+      </c>
+      <c r="K40" s="9">
+        <v>0</v>
+      </c>
+      <c r="L40" s="9">
+        <v>500.0</v>
+      </c>
+      <c r="M40" s="9">
+        <v>980.47</v>
+      </c>
+      <c r="N40" s="9">
+        <v>0</v>
+      </c>
+      <c r="O40" s="9">
+        <v>0</v>
+      </c>
+      <c r="P40" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q40" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="R40" s="9">
+        <v>0</v>
+      </c>
+      <c r="S40" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="1:13520">
+      <c r="A41" s="7">
+        <v>36</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="G41" s="7">
+        <v>1.78</v>
+      </c>
+      <c r="H41" s="7">
+        <v>26</v>
+      </c>
+      <c r="I41" s="7">
+        <v>0</v>
+      </c>
+      <c r="J41" s="9">
+        <v>0</v>
+      </c>
+      <c r="K41" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L41" s="9">
+        <v>500.0</v>
+      </c>
+      <c r="M41" s="9">
+        <v>673.837</v>
+      </c>
+      <c r="N41" s="9">
+        <v>0</v>
+      </c>
+      <c r="O41" s="9">
+        <v>0</v>
+      </c>
+      <c r="P41" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q41" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="R41" s="9">
+        <v>0</v>
+      </c>
+      <c r="S41" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="T41" s="3"/>
+    </row>
+    <row r="42" spans="1:13520">
+      <c r="A42" s="7">
+        <v>37</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G42" s="7">
+        <v>4.28</v>
+      </c>
+      <c r="H42" s="7">
+        <v>26</v>
+      </c>
+      <c r="I42" s="7">
+        <v>0</v>
+      </c>
+      <c r="J42" s="9">
+        <v>0</v>
+      </c>
+      <c r="K42" s="9">
+        <v>0</v>
+      </c>
+      <c r="L42" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="M42" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="N42" s="9">
+        <v>0</v>
+      </c>
+      <c r="O42" s="9">
+        <v>0</v>
+      </c>
+      <c r="P42" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q42" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="R42" s="9">
         <v>218.029</v>
       </c>
-      <c r="S17" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="T17" s="3"/>
-    </row>
-    <row r="19" spans="1:13520">
-      <c r="S19" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13520">
-      <c r="N20" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="S20" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13520">
-      <c r="N21" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>130</v>
+      <c r="S42" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="T42" s="3"/>
+    </row>
+    <row r="44" spans="1:13520">
+      <c r="S44" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13520">
+      <c r="N45" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="S45" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13520">
+      <c r="N46" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="S46" s="1" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -1848,11 +3750,11 @@
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A3:T3"/>
     <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="N46:O46"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
